--- a/Day 3/Book1.xlsx
+++ b/Day 3/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rithw\Desktop\Data Analytics\Day 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230756C8-D6B1-4410-8BE2-55616181F1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E81016-D5B6-4575-A6A3-3325D6BBCC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{BD6A537B-5F52-42AA-8A95-16FF42F9E976}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{BD6A537B-5F52-42AA-8A95-16FF42F9E976}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Find/Search</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Mid Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Concatinate</t>
   </si>
 </sst>
 </file>
@@ -447,7 +459,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" ref="E9:E11" si="9">SUBSTITUTE(A9,"a","",2)</f>
+        <f t="shared" ref="E9:E10" si="9">SUBSTITUTE(A9,"a","",2)</f>
         <v>Vishwa Srivstava</v>
       </c>
       <c r="F9" s="2" t="str">
@@ -671,20 +683,76 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="2" t="str">
+        <f>LEFT(A14,FIND(" ",A14) - 1)</f>
+        <v>Shivendra</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>MID(A15,FIND(" ",A15)+1,FIND(" ",A15,FIND(" ",A15) +1-FIND(" ",A15)))</f>
+        <v>Srivast</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>RIGHT(A14, LEN(A14) - FIND(" ", A14, FIND(" ",A14) +1))</f>
+        <v>Mira</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>TRIM(CONCATENATE(B14," ", C14," ",D14))</f>
+        <v>Shivendra Srivast Mira</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B15" s="2" t="str">
+        <f t="shared" ref="B15:B16" si="11">LEFT(A15,FIND(" ",A15) - 1)</f>
+        <v>Vishwa</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>SUBSTITUTE(A15,B14,"")</f>
+        <v>Vishwa Srivastava</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IFERROR(RIGHT(A15, LEN(A15) - FIND(" ", A15, FIND(" ",A15) +1)),"")</f>
+        <v/>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" ref="E15:E16" si="12">TRIM(CONCATENATE(B15," ", C15," ",D15))</f>
+        <v>Vishwa Vishwa Srivastava</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Noopur</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" ref="D16" si="13">RIGHT(A16, LEN(A16) - FIND(" ", A16, FIND(" ",A16) +1))</f>
+        <v>Vishwakarma</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Noopur Vishwakarma</v>
       </c>
     </row>
   </sheetData>
